--- a/files/excel/IFINLOS/GeneralCode.xlsx
+++ b/files/excel/IFINLOS/GeneralCode.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA\automation\RPAAutomation\files\excel\IFINLOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22A9A57-0CBF-4221-866D-851151AC8D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">General Code </t>
   </si>
@@ -33,29 +34,35 @@
     <t>IsEditable</t>
   </si>
   <si>
-    <t>ABCSS</t>
-  </si>
-  <si>
-    <t>ABCSSDESC</t>
-  </si>
-  <si>
-    <t>SDAX1</t>
-  </si>
-  <si>
-    <t>SDAX1DESC</t>
-  </si>
-  <si>
-    <t>ED2DS</t>
-  </si>
-  <si>
-    <t>ED2DSDESC</t>
+    <t>TESTAUTOMATION1</t>
+  </si>
+  <si>
+    <t>AUTOMATIONTESTDESC1</t>
+  </si>
+  <si>
+    <t>TESTAUTOMATION2</t>
+  </si>
+  <si>
+    <t>AUTOMATIONTESTDESC2</t>
+  </si>
+  <si>
+    <t>TESTAUTOMATION3</t>
+  </si>
+  <si>
+    <t>AUTOMATIONTESTDESC3</t>
+  </si>
+  <si>
+    <t>TESTAUTOMATION4</t>
+  </si>
+  <si>
+    <t>AUTOMATIONTESTDESC4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -66,6 +73,11 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -114,12 +126,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:C5" totalsRowShown="0">
-  <autoFilter ref="A2:C5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A2:C6" totalsRowShown="0">
+  <autoFilter ref="A2:C6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Code"/>
-    <tableColumn id="2" name="Description"/>
-    <tableColumn id="3" name="IsEditable"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Code"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="IsEditable"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -409,14 +421,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="22.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -469,10 +481,22 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
